--- a/1_semester/Support_and_testing_of_software_modules/Lab1/В1_КОД 09.02.07-2-2024-БУ/В1_Ресурсы/B1_import_БытСервис/Заявки/inputDataRequests.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab1/В1_КОД 09.02.07-2-2024-БУ/В1_Ресурсы/B1_import_БытСервис/Заявки/inputDataRequests.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikpl\Desktop\Ресурсы\B1_БытСервис\Заявки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ВКИ\VKI_Course3\1_semester\Support_and_testing_of_software_modules\Lab1\В1_КОД 09.02.07-2-2024-БУ\В1_Ресурсы\B1_import_БытСервис\Заявки\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B580585D-36F7-4013-9BA3-2B0A042E6160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Request" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>requestID</t>
   </si>
@@ -32,9 +36,6 @@
     <t>problemDescryption</t>
   </si>
   <si>
-    <t>requestStatus</t>
-  </si>
-  <si>
     <t>masterID</t>
   </si>
   <si>
@@ -74,15 +75,6 @@
     <t>2022-07-07</t>
   </si>
   <si>
-    <t>В процессе ремонта</t>
-  </si>
-  <si>
-    <t>Готова к выдаче</t>
-  </si>
-  <si>
-    <t>Новая заявка</t>
-  </si>
-  <si>
     <t>Фен</t>
   </si>
   <si>
@@ -141,12 +133,15 @@
   </si>
   <si>
     <t>Мотор обдува морозильной камеры холодильника</t>
+  </si>
+  <si>
+    <t>FK_requestStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,6 +213,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,81 +503,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3">
@@ -583,27 +587,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
+      <c r="F3" s="3">
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3">
@@ -613,27 +617,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
+      <c r="B4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="3">
@@ -643,87 +647,87 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
@@ -733,30 +737,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
       </c>
       <c r="G8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -767,6 +771,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>